--- a/src/Tests/Tests.NullValues.verified.xlsx
+++ b/src/Tests/Tests.NullValues.verified.xlsx
@@ -8,7 +8,9 @@
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$4</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -421,10 +423,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.996339" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.710625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
@@ -484,6 +486,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:D4"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/Tests/Tests.NullValues.verified.xlsx
+++ b/src/Tests/Tests.NullValues.verified.xlsx
@@ -111,13 +111,17 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -444,44 +448,44 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="1">
+      <x:c r="D2" s="2">
         <x:v>43845</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="D3" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D4" s="1">
+      <x:c r="D4" s="2">
         <x:v>44387</x:v>
       </x:c>
     </x:row>
